--- a/EngineManagementBoard_V3/Bill of Materials-EngineManagementBoard_V3.xlsx
+++ b/EngineManagementBoard_V3/Bill of Materials-EngineManagementBoard_V3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PrithviShankara\Documents\Altium\Designs\V3.2\EngineManagementBoard_V3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PrithviShankara\Documents\Altium\Designs\Andromeda-V3.2\EngineManagementBoard_V3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63A30ED-A1FB-4CBB-9E44-888498ED1D6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{767AC8F2-3589-4EFD-B401-985FF101A173}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0D7BF10C-4A63-4CF7-9255-94311828B92B}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{99EEB404-BBE9-497C-976E-7D062ED00093}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-EngineManagem" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="64">
   <si>
     <t>Comment</t>
   </si>
@@ -131,16 +131,16 @@
     <t>J4</t>
   </si>
   <si>
-    <t>Mounting Hole</t>
-  </si>
-  <si>
-    <t>#4 Screw, 0.116in Diameter</t>
-  </si>
-  <si>
-    <t>MH1, MH2, MH3, MH4</t>
-  </si>
-  <si>
-    <t>MOUNT-HOLE</t>
+    <t>4884</t>
+  </si>
+  <si>
+    <t>ROUND STANDOFF #4-40 STEEL 3/8"</t>
+  </si>
+  <si>
+    <t>MH1, MH2</t>
+  </si>
+  <si>
+    <t>Standoff</t>
   </si>
   <si>
     <t>DMN3023L-7</t>
@@ -194,7 +194,16 @@
     <t>RES SMD 330 OHM 1% 1/10W 0603</t>
   </si>
   <si>
-    <t>R8, R11, R15, R17, R18, R19, R20, R21, R22, R23, R24, R25</t>
+    <t>R8, R11, R15, R17, R18, R19, R20, R21, R22</t>
+  </si>
+  <si>
+    <t>ERA-3AEB2491V</t>
+  </si>
+  <si>
+    <t>RES SMD 2.49KOHM 0.1% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>R23, R24, R25</t>
   </si>
   <si>
     <t>SN74HC157DR</t>
@@ -600,23 +609,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E1C2872-8545-467D-94A6-860C8D66F7BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A7C92A5-0C2A-464A-AFB9-625804C900D9}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="19" customWidth="1"/>
+    <col min="1" max="6" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -816,7 +819,7 @@
         <v>31</v>
       </c>
       <c r="F10" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -936,10 +939,10 @@
         <v>50</v>
       </c>
       <c r="F16" s="4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>53</v>
       </c>
@@ -950,38 +953,58 @@
         <v>55</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>53</v>
       </c>
       <c r="F17" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="3" t="s">
+    <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F18" s="4">
+      <c r="B19" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="4">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.30555555555555558" right="0.30555555555555558" top="0.30555555555555558" bottom="0.30555555555555558" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="99" orientation="landscape" blackAndWhite="1" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="94" orientation="landscape" blackAndWhite="1" r:id="rId1"/>
 </worksheet>
 </file>
--- a/EngineManagementBoard_V3/Bill of Materials-EngineManagementBoard_V3.xlsx
+++ b/EngineManagementBoard_V3/Bill of Materials-EngineManagementBoard_V3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PrithviShankara\Documents\Altium\Designs\Andromeda-V3.2\EngineManagementBoard_V3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{767AC8F2-3589-4EFD-B401-985FF101A173}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB8D19D-F601-4DC1-AEDE-0C7D0367D23B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{99EEB404-BBE9-497C-976E-7D062ED00093}"/>
+    <workbookView xWindow="-30860" yWindow="-140" windowWidth="17280" windowHeight="8960" xr2:uid="{CF970F2F-DD53-4284-9EDA-4B228105B03C}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-EngineManagem" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="85">
   <si>
     <t>Comment</t>
   </si>
@@ -56,6 +56,12 @@
     <t>Quantity</t>
   </si>
   <si>
+    <t>Supplier 1</t>
+  </si>
+  <si>
+    <t>Supplier Part Number 1</t>
+  </si>
+  <si>
     <t>LTST-C191KGKT</t>
   </si>
   <si>
@@ -65,6 +71,12 @@
     <t>A1, A2, A3, G1, G2, G3, P1, P2, P3</t>
   </si>
   <si>
+    <t>Digi-Key</t>
+  </si>
+  <si>
+    <t>160-1446-1-ND</t>
+  </si>
+  <si>
     <t>CGA3E2X7R1E104K080AA</t>
   </si>
   <si>
@@ -77,15 +89,18 @@
     <t>0603[1608]</t>
   </si>
   <si>
+    <t>445-5667-1-ND</t>
+  </si>
+  <si>
     <t>CC0603JRNPO9BN511</t>
   </si>
   <si>
-    <t>CAP CER 4.7UF 25V X5R 0603</t>
-  </si>
-  <si>
     <t>C2, C7, C10</t>
   </si>
   <si>
+    <t>311-3972-1-ND</t>
+  </si>
+  <si>
     <t>CL10A105KP8NNNC</t>
   </si>
   <si>
@@ -95,6 +110,9 @@
     <t>C3, C8, C11</t>
   </si>
   <si>
+    <t>1276-1182-1-ND</t>
+  </si>
+  <si>
     <t>CL10A106MP8NNNC</t>
   </si>
   <si>
@@ -104,6 +122,9 @@
     <t>C4</t>
   </si>
   <si>
+    <t>1276-1871-1-ND</t>
+  </si>
+  <si>
     <t>61300811121</t>
   </si>
   <si>
@@ -113,6 +134,9 @@
     <t>J1, J2</t>
   </si>
   <si>
+    <t>732-5321-ND</t>
+  </si>
+  <si>
     <t>10132449-1221GLF</t>
   </si>
   <si>
@@ -122,6 +146,9 @@
     <t>J3</t>
   </si>
   <si>
+    <t>609-5289-ND</t>
+  </si>
+  <si>
     <t>0430450600</t>
   </si>
   <si>
@@ -131,10 +158,13 @@
     <t>J4</t>
   </si>
   <si>
-    <t>4884</t>
-  </si>
-  <si>
-    <t>ROUND STANDOFF #4-40 STEEL 3/8"</t>
+    <t>WM1815-ND</t>
+  </si>
+  <si>
+    <t>9774110360R</t>
+  </si>
+  <si>
+    <t>ROUND STANDOFF M3X0.5 STEEL 11MM</t>
   </si>
   <si>
     <t>MH1, MH2</t>
@@ -143,6 +173,9 @@
     <t>Standoff</t>
   </si>
   <si>
+    <t>732-5278-1-ND</t>
+  </si>
+  <si>
     <t>DMN3023L-7</t>
   </si>
   <si>
@@ -152,6 +185,9 @@
     <t>Q1, Q2, Q3</t>
   </si>
   <si>
+    <t>DMN3023L-7DICT-ND</t>
+  </si>
+  <si>
     <t>MCT06030C1302FP500</t>
   </si>
   <si>
@@ -161,6 +197,9 @@
     <t>R1, R5, R10</t>
   </si>
   <si>
+    <t>749-1606-1-ND</t>
+  </si>
+  <si>
     <t>ERJ-3GEYJ103V</t>
   </si>
   <si>
@@ -170,6 +209,9 @@
     <t>R2, R9, R12, R16</t>
   </si>
   <si>
+    <t>P10KGCT-ND</t>
+  </si>
+  <si>
     <t>ERJ-3EKF2003V</t>
   </si>
   <si>
@@ -179,6 +221,9 @@
     <t>R3, R6, R13</t>
   </si>
   <si>
+    <t>P200KHCT-ND</t>
+  </si>
+  <si>
     <t>ESR03EZPJ101</t>
   </si>
   <si>
@@ -188,6 +233,9 @@
     <t>R4, R7, R14</t>
   </si>
   <si>
+    <t>RHM100DCT-ND</t>
+  </si>
+  <si>
     <t>RC1608F331CS</t>
   </si>
   <si>
@@ -197,6 +245,9 @@
     <t>R8, R11, R15, R17, R18, R19, R20, R21, R22</t>
   </si>
   <si>
+    <t>1276-4604-2-ND</t>
+  </si>
+  <si>
     <t>ERA-3AEB2491V</t>
   </si>
   <si>
@@ -206,6 +257,9 @@
     <t>R23, R24, R25</t>
   </si>
   <si>
+    <t>P2.49KDBCT-ND</t>
+  </si>
+  <si>
     <t>SN74HC157DR</t>
   </si>
   <si>
@@ -218,6 +272,9 @@
     <t>SOIC127P600X175-16N</t>
   </si>
   <si>
+    <t>296-14836-2-ND</t>
+  </si>
+  <si>
     <t>INA326EA/2K5</t>
   </si>
   <si>
@@ -228,6 +285,12 @@
   </si>
   <si>
     <t>TSOP65P490X110-8N</t>
+  </si>
+  <si>
+    <t>INA326EA/2K5CT-ND</t>
+  </si>
+  <si>
+    <t>CAP CER 510PF 50V NPO 0603</t>
   </si>
 </sst>
 </file>
@@ -609,20 +672,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A7C92A5-0C2A-464A-AFB9-625804C900D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87476045-6D9C-457B-9FF9-63C921857453}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="6" width="19" customWidth="1"/>
+    <col min="7" max="8" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -641,370 +707,484 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F2" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F3" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F4" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="E5" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F5" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F7" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F10" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F11" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="F12" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="F13" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="F14" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="F15" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="G15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="F16" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="F17" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="G17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="F18" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="F19" s="4">
         <v>3</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.30555555555555558" right="0.30555555555555558" top="0.30555555555555558" bottom="0.30555555555555558" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="94" orientation="landscape" blackAndWhite="1" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="91" orientation="landscape" blackAndWhite="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>